--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_Provider.xlsx
@@ -1160,10 +1160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1201,31 +1201,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,25 +1216,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1271,44 +1263,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,6 +1283,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1337,11 +1330,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1372,37 +1372,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,31 +1408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,25 +1426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,25 +1444,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,12 +1534,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1547,6 +1541,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,21 +1616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1650,6 +1635,36 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1690,21 +1705,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1716,7 +1716,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1734,127 +1734,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2314,8 +2314,8 @@
   <sheetPr/>
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2449,7 +2449,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -2629,7 +2629,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2823,7 +2823,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>39</v>
@@ -3045,7 +3045,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>12</v>
@@ -3287,7 +3287,7 @@
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>12</v>
@@ -3349,7 +3349,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -3521,7 +3521,7 @@
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
@@ -3845,7 +3845,7 @@
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>12</v>
@@ -4621,7 +4621,7 @@
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>12</v>
@@ -4907,7 +4907,7 @@
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>12</v>
@@ -5101,7 +5101,7 @@
       <c r="C133" s="10"/>
       <c r="D133" s="13"/>
       <c r="E133" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_Provider.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_Provider.xlsx
@@ -17,6 +17,7 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373">
   <si>
     <t>Step No</t>
   </si>
@@ -465,171 +466,171 @@
     <t>Insurance selected</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>APP_INS_TYPE</t>
   </si>
   <si>
-    <t>Medicare</t>
-  </si>
-  <si>
     <t>Insurance type selected</t>
   </si>
   <si>
     <t>APP_PLANTYPE</t>
   </si>
   <si>
+    <t>Select Plan type</t>
+  </si>
+  <si>
+    <t>Plan type selected</t>
+  </si>
+  <si>
+    <t>APP_INS_NUMBER</t>
+  </si>
+  <si>
+    <t>Enter Policy number</t>
+  </si>
+  <si>
+    <t>Policy number entered</t>
+  </si>
+  <si>
+    <t>APP_SUBS_NAME</t>
+  </si>
+  <si>
+    <t>Enter Subscriber name</t>
+  </si>
+  <si>
+    <t>Subscriber name entered</t>
+  </si>
+  <si>
+    <t>LLS_SUB_RELATION</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>LLS_OP_PRESCRIPTION_NO</t>
+  </si>
+  <si>
+    <t>LLS_PHARMACY_INS_COVER_NO</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_PART_NO</t>
+  </si>
+  <si>
+    <t>Do you have Medicare Part D?</t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t>LLS_PREVIOUSLY_INSURED_NO</t>
+  </si>
+  <si>
+    <t>LLS_UNINSURED_PRIOR_NO</t>
+  </si>
+  <si>
+    <t>APP_SEC_INSURANCE_NO</t>
+  </si>
+  <si>
+    <t>Do you have Secondary Insurance?</t>
+  </si>
+  <si>
+    <t>No clicked</t>
+  </si>
+  <si>
+    <t>TRASH_PROVIDER_PAGE</t>
+  </si>
+  <si>
+    <t>Trash old provider</t>
+  </si>
+  <si>
+    <t>Trashed</t>
+  </si>
+  <si>
+    <t>SEARCH_PROVIDER</t>
+  </si>
+  <si>
+    <t>NAME_TAB_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>Click Name tab</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>FACILITY/PRACTICE_NAME</t>
+  </si>
+  <si>
+    <t>Enter Facility name</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>CLICK_HERE_PROVIDER</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_LAST_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_NPI</t>
+  </si>
+  <si>
+    <t>Enter NPI</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FACILITY_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_TAXID</t>
+  </si>
+  <si>
+    <t>Enter TaxID</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE_EFT</t>
+  </si>
+  <si>
+    <t>Click EFT YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PAYMENT_YES</t>
+  </si>
+  <si>
+    <t>Click Auth Payment YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PHYSICIAN_YES</t>
+  </si>
+  <si>
+    <t>Click Auth physician Yes</t>
+  </si>
+  <si>
+    <t>PROV_ADDRESS_TYPE</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Select Plan type</t>
-  </si>
-  <si>
-    <t>Plan type selected</t>
-  </si>
-  <si>
-    <t>APP_INS_NUMBER</t>
-  </si>
-  <si>
-    <t>Enter Policy number</t>
-  </si>
-  <si>
-    <t>Policy number entered</t>
-  </si>
-  <si>
-    <t>APP_SUBS_NAME</t>
-  </si>
-  <si>
-    <t>Enter Subscriber name</t>
-  </si>
-  <si>
-    <t>Subscriber name entered</t>
-  </si>
-  <si>
-    <t>LLS_SUB_RELATION</t>
-  </si>
-  <si>
-    <t>Child</t>
-  </si>
-  <si>
-    <t>LLS_OP_PRESCRIPTION_NO</t>
-  </si>
-  <si>
-    <t>LLS_PHARMACY_INS_COVER_NO</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_PART_NO</t>
-  </si>
-  <si>
-    <t>Do you have Medicare Part D?</t>
-  </si>
-  <si>
-    <t>Entered</t>
-  </si>
-  <si>
-    <t>LLS_PREVIOUSLY_INSURED_NO</t>
-  </si>
-  <si>
-    <t>LLS_UNINSURED_PRIOR_NO</t>
-  </si>
-  <si>
-    <t>APP_SEC_INSURANCE_NO</t>
-  </si>
-  <si>
-    <t>Do you have Secondary Insurance?</t>
-  </si>
-  <si>
-    <t>No clicked</t>
-  </si>
-  <si>
-    <t>TRASH_PROVIDER_PAGE</t>
-  </si>
-  <si>
-    <t>Trash old provider</t>
-  </si>
-  <si>
-    <t>Trashed</t>
-  </si>
-  <si>
-    <t>SEARCH_PROVIDER</t>
-  </si>
-  <si>
-    <t>NAME_TAB_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>Click Name tab</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_STATE</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Select State from the search popup</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_LASTNAME</t>
-  </si>
-  <si>
-    <t>FACILITY/PRACTICE_NAME</t>
-  </si>
-  <si>
-    <t>Enter Facility name</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH</t>
-  </si>
-  <si>
-    <t>Click Search button</t>
-  </si>
-  <si>
-    <t>Search clicked</t>
-  </si>
-  <si>
-    <t>CLICK_HERE_PROVIDER</t>
-  </si>
-  <si>
-    <t>ADD_PROV_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_LAST_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_NPI</t>
-  </si>
-  <si>
-    <t>Enter NPI</t>
-  </si>
-  <si>
-    <t>ADD_PROV_FACILITY_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_TAXID</t>
-  </si>
-  <si>
-    <t>Enter TaxID</t>
-  </si>
-  <si>
-    <t>PAYMENT_TYPE_EFT</t>
-  </si>
-  <si>
-    <t>Click EFT YEs</t>
-  </si>
-  <si>
-    <t>AUTH_PAYMENT_YES</t>
-  </si>
-  <si>
-    <t>Click Auth Payment YEs</t>
-  </si>
-  <si>
-    <t>AUTH_PHYSICIAN_YES</t>
-  </si>
-  <si>
-    <t>Click Auth physician Yes</t>
-  </si>
-  <si>
-    <t>PROV_ADDRESS_TYPE</t>
-  </si>
-  <si>
     <t>selected</t>
   </si>
   <si>
@@ -940,9 +941,6 @@
   </si>
   <si>
     <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>SelectByValue</t>
@@ -1160,10 +1158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1201,37 +1199,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1239,7 +1208,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1254,15 +1223,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,33 +1262,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1322,11 +1291,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1338,14 +1307,43 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1366,13 +1364,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,7 +1418,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,43 +1502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,85 +1520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,6 +1538,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1547,12 +1557,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,16 +1660,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1690,21 +1694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1713,10 +1702,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1734,134 +1738,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1880,11 +1884,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2031,6 +2037,21 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2314,8 +2335,8 @@
   <sheetPr/>
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3589,17 +3610,17 @@
       <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>41</v>
+      <c r="B60" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" s="10" t="s">
         <v>145</v>
+      </c>
+      <c r="E60" s="10">
+        <v>1</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>142</v>
@@ -3613,23 +3634,23 @@
       <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="15" t="s">
+      <c r="B61" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="18">
+        <v>1</v>
+      </c>
+      <c r="F61" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="G61" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="H61" s="17"/>
     </row>
@@ -3644,14 +3665,14 @@
         <v>15</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="H62" s="9"/>
     </row>
@@ -3666,14 +3687,14 @@
         <v>15</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G63" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="H63" s="17"/>
     </row>
@@ -3688,10 +3709,10 @@
         <v>20</v>
       </c>
       <c r="D64" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -3708,7 +3729,7 @@
         <v>20</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -3726,7 +3747,7 @@
         <v>20</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -3744,14 +3765,14 @@
         <v>20</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G67" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="H67" s="17"/>
     </row>
@@ -3766,7 +3787,7 @@
         <v>20</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -3784,7 +3805,7 @@
         <v>20</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -3802,14 +3823,14 @@
         <v>20</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G70" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="H70" s="9"/>
     </row>
@@ -3865,15 +3886,15 @@
       <c r="C73" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="18" t="s">
-        <v>169</v>
+      <c r="D73" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="H73" s="10"/>
     </row>
@@ -3908,12 +3929,12 @@
         <v>15</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H75" s="10"/>
     </row>
@@ -3943,12 +3964,12 @@
       <c r="C77" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="18" t="s">
-        <v>173</v>
+      <c r="D77" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G77" s="12" t="s">
         <v>35</v>
@@ -3963,7 +3984,7 @@
         <v>11</v>
       </c>
       <c r="C78" s="12"/>
-      <c r="D78" s="18"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="12">
         <v>2</v>
       </c>
@@ -3982,13 +4003,13 @@
         <v>20</v>
       </c>
       <c r="D79" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="F79" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>104</v>
@@ -4006,7 +4027,7 @@
         <v>15</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12" t="s">
@@ -4027,15 +4048,15 @@
       <c r="C81" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="19" t="s">
-        <v>179</v>
+      <c r="D81" s="21" t="s">
+        <v>178</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H81" s="10"/>
     </row>
@@ -4050,14 +4071,14 @@
         <v>15</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G82" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="H82" s="10"/>
     </row>
@@ -4091,8 +4112,8 @@
       <c r="C84" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="18" t="s">
-        <v>184</v>
+      <c r="D84" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -4125,8 +4146,8 @@
       <c r="C86" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="19" t="s">
-        <v>185</v>
+      <c r="D86" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
@@ -4147,8 +4168,8 @@
       <c r="C87" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="19" t="s">
-        <v>186</v>
+      <c r="D87" s="21" t="s">
+        <v>185</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="10" t="s">
@@ -4169,15 +4190,15 @@
       <c r="C88" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="19" t="s">
-        <v>187</v>
+      <c r="D88" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H88" s="10"/>
     </row>
@@ -4191,15 +4212,15 @@
       <c r="C89" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="19" t="s">
-        <v>189</v>
+      <c r="D89" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H89" s="10"/>
     </row>
@@ -4213,15 +4234,15 @@
       <c r="C90" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="19" t="s">
-        <v>190</v>
+      <c r="D90" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H90" s="10"/>
     </row>
@@ -4235,12 +4256,12 @@
       <c r="C91" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="19" t="s">
-        <v>192</v>
+      <c r="D91" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>35</v>
@@ -4257,12 +4278,12 @@
       <c r="C92" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="19" t="s">
-        <v>194</v>
+      <c r="D92" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>35</v>
@@ -4279,12 +4300,12 @@
       <c r="C93" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="19" t="s">
-        <v>196</v>
+      <c r="D93" s="21" t="s">
+        <v>195</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>35</v>
@@ -4301,11 +4322,11 @@
       <c r="C94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>93</v>
@@ -4325,7 +4346,7 @@
       <c r="C95" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="21" t="s">
         <v>200</v>
       </c>
       <c r="E95" s="10" t="s">
@@ -4349,7 +4370,7 @@
       <c r="C96" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="21" t="s">
         <v>204</v>
       </c>
       <c r="E96" s="10"/>
@@ -4367,10 +4388,10 @@
       <c r="C97" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="22" t="s">
         <v>206</v>
       </c>
       <c r="F97" s="10"/>
@@ -4387,7 +4408,7 @@
       <c r="C98" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="21" t="s">
         <v>207</v>
       </c>
       <c r="E98" s="10" t="s">
@@ -4407,7 +4428,7 @@
       <c r="C99" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E99" s="10">
@@ -4427,7 +4448,7 @@
       <c r="C100" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E100" s="10">
@@ -4447,7 +4468,7 @@
       <c r="C101" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="21" t="s">
         <v>210</v>
       </c>
       <c r="E101" s="10">
@@ -4467,7 +4488,7 @@
       <c r="C102" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="21" t="s">
         <v>211</v>
       </c>
       <c r="E102" s="10">
@@ -4487,7 +4508,7 @@
       <c r="C103" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="21" t="s">
         <v>212</v>
       </c>
       <c r="E103" s="10" t="s">
@@ -4507,7 +4528,7 @@
       <c r="C104" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="21" t="s">
         <v>214</v>
       </c>
       <c r="E104" s="10" t="s">
@@ -4527,7 +4548,7 @@
       <c r="C105" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="21" t="s">
         <v>216</v>
       </c>
       <c r="E105" s="10" t="s">
@@ -4547,7 +4568,7 @@
       <c r="C106" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="21" t="s">
         <v>217</v>
       </c>
       <c r="E106" s="10"/>
@@ -5149,7 +5170,7 @@
       <c r="A136" s="8">
         <v>135</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C136" s="12" t="s">
@@ -5165,7 +5186,7 @@
       <c r="G136" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H136" s="22">
+      <c r="H136" s="24">
         <v>3</v>
       </c>
     </row>
@@ -5189,7 +5210,7 @@
       <c r="G137" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H137" s="22"/>
+      <c r="H137" s="24"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="8">
@@ -5205,7 +5226,7 @@
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
-      <c r="H138" s="22"/>
+      <c r="H138" s="24"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="11">
@@ -5246,8 +5267,8 @@
       <c r="H140" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B46 B47 B48 B53 B54 B55 B56 B60 B63 B64 B65 B66 B67 B70 B118 B119 B128 B129 B130 B131 B132 B133 B134 B135 B14:B20 B21:B29 B31:B39 B40:B45 B49:B52 B57:B59 B61:B62 B68:B69 B71:B72 B108:B115 B116:B117 B120:B124 B125:B126 B139:B140 C2:C3">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B46 B47 B48 B53 B54 B55 B56 B62 B63 B64 B65 B66 B67 B70 B118 B119 B128 B129 B130 B131 B132 B133 B134 B135 B14:B20 B21:B29 B31:B39 B40:B45 B49:B52 B57:B59 B68:B69 B71:B72 B108:B115 B116:B117 B120:B124 B125:B126 B139:B140 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -5267,6 +5288,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136">
       <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60:B61">
+      <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141:B1048576">
       <formula1>DataList!$C$2:$C$129</formula1>
@@ -5463,12 +5487,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>303</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5478,152 +5502,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5633,62 +5657,62 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>287</v>
@@ -5696,12 +5720,12 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>287</v>
@@ -5709,27 +5733,27 @@
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>287</v>
@@ -5737,7 +5761,7 @@
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>287</v>
@@ -5745,87 +5769,87 @@
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -5835,7 +5859,7 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5845,7 +5869,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
